--- a/Results/TCGA/TCGA.FoundVariantsDNA.vaf.xlsx
+++ b/Results/TCGA/TCGA.FoundVariantsDNA.vaf.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TCGA-AB-2808-03D_Alq2</t>
+          <t>TCGA-AB-2808-03D</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
